--- a/df_odds_final.xlsx
+++ b/df_odds_final.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -576,6 +576,282 @@
       </c>
       <c r="O2" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds_final.xlsx
+++ b/df_odds_final.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,11 +514,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45248</v>
+        <v>45252</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,54 +528,54 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>SERIE A - ROUND 33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.67</v>
+        <v>0.51</v>
       </c>
       <c r="O2" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
@@ -587,7 +587,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -597,32 +597,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>SERIE A - ROUND 32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -632,19 +632,19 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.51</v>
+        <v>0.8</v>
       </c>
       <c r="O3" t="n">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -652,11 +652,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>SERIE A - ROUND 29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -706,14 +706,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -725,7 +725,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -735,32 +735,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>SERIE A - ROUND 30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -775,14 +775,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -790,68 +790,5568 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A-LEAGUE - ROUND 5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Macarthur FC</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Melbourne Victory</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sint Truiden</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>BRAZIL</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>LIGUE 1 - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PSG</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Koln</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>00:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A-LEAGUE - ROUND 5</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Melbourne City</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>03:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A-LEAGUE - ROUND 5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Newcastle Jets</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A-LEAGUE - ROUND 5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sydney FC</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Standard Liege</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Athletico Paranaense</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Brighton and Hove Albion</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>LIGUE 1 - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Clermont Foot</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>LIGUE 1 - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Monchengladbach</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Darmstadt</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Bayer Leverkusen</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>14:45</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>A-LEAGUE - ROUND 5</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Perth Glory</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>A-LEAGUE - ROUND 5</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Western United</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>RWD Molenbeek</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BELGIUM</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 35</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Atletico Mineiro</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Botafogo RJ</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>America MG</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Flamengo</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Bragantino</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>LIGUE 1 - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>LIGUE 1 - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Lorient</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>LIGUE 1 - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>LIGUE 1 - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>LIGUE 1 - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>FRANCE</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>LIGUE 1 - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GERMANY</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>BUNDESLIGA - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Volendam</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.31</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>BRAZIL</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Goias</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>ENGLAND</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>PREMIER LEAGUE - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Athletic Club</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds_final.xlsx
+++ b/df_odds_final.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45252</v>
+        <v>45259</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -528,54 +528,54 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 33</t>
+          <t>SERIE A - ROUND 36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="O2" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -583,11 +583,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45252</v>
+        <v>45259</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -597,54 +597,54 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 32</t>
+          <t>SERIE A - ROUND 36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -652,11 +652,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45253</v>
+        <v>45259</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -666,54 +666,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 29</t>
+          <t>SERIE A - ROUND 36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -721,11 +721,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45253</v>
+        <v>45259</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -735,54 +735,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 30</t>
+          <t>SERIE A - ROUND 36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="O5" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6">
@@ -790,36 +790,36 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>SERIE A - ROUND 36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
       <c r="N6" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.53</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.47</v>
       </c>
     </row>
     <row r="7">
@@ -859,68 +859,68 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>SERIE A - ROUND 36</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
@@ -928,68 +928,68 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>LIGUE 1 - ROUND 8</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
       <c r="O8" t="n">
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -997,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1006,124 +1006,128 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>LALIGA - ROUND 13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45254</v>
+        <v>45260</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>SERIE A - ROUND 36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>6.50</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="O10" t="n">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="11">
@@ -1131,61 +1135,61 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45254</v>
+        <v>45260</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>SERIE A - ROUND 36</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1196,51 +1200,51 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45255</v>
+        <v>45260</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>SERIE A - ROUND 36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1250,14 +1254,14 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="O12" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="13">
@@ -1265,11 +1269,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1279,54 +1283,54 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>A-LEAGUE - ROUND 6</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.77</v>
+        <v>0.46</v>
       </c>
       <c r="O13" t="n">
-        <v>0.23</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="14">
@@ -1334,68 +1338,68 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>JUPILER PRO LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
       <c r="N14" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="15">
@@ -1403,68 +1407,68 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="O15" t="n">
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="16">
@@ -1472,76 +1476,72 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.49</v>
-      </c>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1550,59 +1550,59 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>SERIE A - ROUND 14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="O17" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="18">
@@ -1610,68 +1610,68 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>EREDIVISIE - ROUND 14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Athletico Paranaense</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.53</v>
+        <v>0.68</v>
       </c>
       <c r="O18" t="n">
-        <v>0.47</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="19">
@@ -1679,68 +1679,68 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>LIGA PORTUGAL - ROUND 12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="O19" t="n">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="20">
@@ -1748,68 +1748,68 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45255</v>
+        <v>45261</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>LALIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.74</v>
+        <v>0.49</v>
       </c>
       <c r="O20" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="21">
@@ -1817,61 +1817,61 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 6</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -1886,72 +1886,76 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 6</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1960,59 +1964,59 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="O23" t="n">
-        <v>0.22</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="24">
@@ -2020,68 +2024,68 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="O24" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="25">
@@ -2089,133 +2093,137 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>SERIE A - ROUND 37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="O26" t="n">
-        <v>0.59</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="27">
@@ -2223,68 +2231,68 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>SERIE A - ROUND 37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="O27" t="n">
-        <v>0.64</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="28">
@@ -2292,68 +2300,68 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.39</v>
+        <v>0.89</v>
       </c>
       <c r="O28" t="n">
-        <v>0.61</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="29">
@@ -2361,31 +2369,31 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>PREMIER LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Monchengladbach</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2395,96 +2403,92 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.23</v>
-      </c>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>PREMIER LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2495,68 +2499,68 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>PREMIER LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.77</v>
+        <v>0.57</v>
       </c>
       <c r="O31" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="32">
@@ -2564,68 +2568,68 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>PREMIER LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="O32" t="n">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="33">
@@ -2633,51 +2637,51 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>LIGUE 1 - ROUND 14</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2687,14 +2691,14 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.43</v>
+        <v>0.79</v>
       </c>
       <c r="O33" t="n">
-        <v>0.57</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="34">
@@ -2702,68 +2706,68 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>LIGUE 1 - ROUND 14</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.71</v>
+        <v>0.4</v>
       </c>
       <c r="O34" t="n">
-        <v>0.29</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35">
@@ -2771,68 +2775,68 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>BUNDESLIGA - ROUND 13</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Monchengladbach</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="O35" t="n">
-        <v>0.68</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="36">
@@ -2840,68 +2844,68 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>BUNDESLIGA - ROUND 13</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.38</v>
+        <v>0.8</v>
       </c>
       <c r="O36" t="n">
-        <v>0.62</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37">
@@ -2909,68 +2913,68 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>BUNDESLIGA - ROUND 13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="O37" t="n">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="38">
@@ -2978,68 +2982,68 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>BUNDESLIGA - ROUND 13</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.28</v>
+        <v>0.89</v>
       </c>
       <c r="O38" t="n">
-        <v>0.72</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="39">
@@ -3047,68 +3051,68 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>BUNDESLIGA - ROUND 13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="O39" t="n">
-        <v>0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="40">
@@ -3116,61 +3120,61 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>SERIE A - ROUND 14</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -3185,68 +3189,68 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>SERIE A - ROUND 14</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="O41" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -3254,68 +3258,68 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>SERIE A - ROUND 14</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.47</v>
+        <v>0.86</v>
       </c>
       <c r="O42" t="n">
-        <v>0.53</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="43">
@@ -3323,68 +3327,68 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 14</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.37</v>
+        <v>0.57</v>
       </c>
       <c r="O43" t="n">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="44">
@@ -3392,46 +3396,46 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 14</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3441,19 +3445,19 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="O44" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="45">
@@ -3461,51 +3465,51 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 14</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3515,14 +3519,14 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="O45" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="46">
@@ -3530,7 +3534,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3539,59 +3543,59 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 14</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.83</v>
+        <v>0.31</v>
       </c>
       <c r="O46" t="n">
-        <v>0.17</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3599,68 +3603,68 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45256</v>
+        <v>45262</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>LIGA PORTUGAL - ROUND 12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.66</v>
+        <v>0.57</v>
       </c>
       <c r="O47" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="48">
@@ -3668,68 +3672,68 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45256</v>
+        <v>45262</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 5</t>
+          <t>LIGA PORTUGAL - ROUND 12</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="O48" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="49">
@@ -3737,68 +3741,68 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45256</v>
+        <v>45262</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 12</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.44</v>
+        <v>0.33</v>
       </c>
       <c r="O49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="50">
@@ -3806,68 +3810,68 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45256</v>
+        <v>45262</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="O50" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="51">
@@ -3875,68 +3879,68 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45256</v>
+        <v>45262</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>LALIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="O51" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="52">
@@ -3944,68 +3948,68 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45256</v>
+        <v>45262</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 15</t>
+          <t>LALIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O52" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="53">
@@ -4013,137 +4017,133 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45256</v>
+        <v>45262</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>LALIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0.23</v>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45256</v>
+        <v>45262</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>LALIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="O54" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -4151,68 +4151,68 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>A-LEAGUE - ROUND 6</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.41</v>
+        <v>0.73</v>
       </c>
       <c r="O55" t="n">
-        <v>0.59</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="56">
@@ -4220,68 +4220,68 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>A-LEAGUE - ROUND 6</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
           <t>1.30</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
       <c r="N56" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="O56" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="57">
@@ -4289,68 +4289,68 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>JUPILER PRO LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="O57" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="58">
@@ -4358,68 +4358,68 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>JUPILER PRO LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sint Truiden</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
       <c r="N58" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="O58" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="59">
@@ -4427,68 +4427,68 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.55</v>
+        <v>0.61</v>
       </c>
       <c r="O59" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="60">
@@ -4496,68 +4496,68 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.28</v>
+        <v>0.77</v>
       </c>
       <c r="O60" t="n">
-        <v>0.72</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="61">
@@ -4565,68 +4565,68 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>SERIE A - ROUND 37</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0.71</v>
+        <v>0.66</v>
       </c>
       <c r="O61" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="62">
@@ -4634,68 +4634,68 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>SERIE A - ROUND 37</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="O62" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="63">
@@ -4703,68 +4703,68 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>SERIE A - ROUND 37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="O63" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="64">
@@ -4772,68 +4772,68 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>SERIE A - ROUND 37</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Athletico Paranaense</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="O64" t="n">
-        <v>0.39</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="65">
@@ -4841,68 +4841,68 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>SERIE A - ROUND 37</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="O65" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="66">
@@ -4910,68 +4910,68 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 13</t>
+          <t>SERIE A - ROUND 37</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O66" t="n">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="67">
@@ -4979,68 +4979,68 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>SERIE A - ROUND 37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="O67" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="68">
@@ -5048,68 +5048,68 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 12</t>
+          <t>SERIE A - ROUND 37</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="O68" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="69">
@@ -5117,68 +5117,68 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="O69" t="n">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -5186,7 +5186,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -5195,59 +5195,59 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="O70" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="71">
@@ -5255,7 +5255,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -5264,59 +5264,59 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="O71" t="n">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="72">
@@ -5324,68 +5324,68 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
       <c r="O72" t="n">
-        <v>0.28</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="73">
@@ -5393,68 +5393,68 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0.53</v>
+        <v>0.74</v>
       </c>
       <c r="O73" t="n">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="74">
@@ -5462,137 +5462,133 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 14</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.41</v>
-      </c>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 14</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0.87</v>
+        <v>0.45</v>
       </c>
       <c r="O75" t="n">
-        <v>0.13</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="76">
@@ -5600,68 +5596,68 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 14</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="O76" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="77">
@@ -5669,36 +5665,36 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 14</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5708,12 +5704,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5723,14 +5719,14 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="O77" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="78">
@@ -5738,68 +5734,68 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 14</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>0.63</v>
+        <v>0.85</v>
       </c>
       <c r="O78" t="n">
-        <v>0.37</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="79">
@@ -5807,68 +5803,68 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 14</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="O79" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="80">
@@ -5876,68 +5872,68 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>BUNDESLIGA - ROUND 13</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="O80" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81">
@@ -5945,68 +5941,68 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45256</v>
+        <v>45263</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 14</t>
+          <t>BUNDESLIGA - ROUND 13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
           <t>1.17</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>0.82</v>
+        <v>0.48</v>
       </c>
       <c r="O81" t="n">
-        <v>0.18</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="82">
@@ -6014,68 +6010,68 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 35</t>
+          <t>BUNDESLIGA - ROUND 13</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0.55</v>
+        <v>0.39</v>
       </c>
       <c r="O82" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="83">
@@ -6083,68 +6079,68 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 13</t>
+          <t>SERIE A - ROUND 14</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>0.64</v>
+        <v>0.42</v>
       </c>
       <c r="O83" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="84">
@@ -6152,11 +6148,11 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -6166,54 +6162,54 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>SERIE A - ROUND 14</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O84" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="85">
@@ -6221,11 +6217,11 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -6235,54 +6231,54 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 13</t>
+          <t>SERIE A - ROUND 14</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="O85" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="86">
@@ -6290,68 +6286,1168 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45257</v>
+        <v>45263</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NETHERLANDS</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>EREDIVISIE - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 14</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Girona</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Athletic Club</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>AUSTRALIA</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>A-LEAGUE - ROUND 6</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Macarthur FC</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Adelaide United</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ITALY</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>SERIE A - ROUND 14</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 12</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Gil Vicente FC</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SPAIN</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="N86" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.43</v>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds_final.xlsx
+++ b/df_odds_final.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -528,22 +528,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 36</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -553,12 +553,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,14 +568,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="O2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -583,11 +583,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 36</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -622,29 +622,29 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.61</v>
+        <v>0.32</v>
       </c>
       <c r="O3" t="n">
-        <v>0.39</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="4">
@@ -652,11 +652,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 36</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -691,22 +691,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -721,11 +721,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -735,37 +735,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 36</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -775,14 +775,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="O5" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -804,62 +804,58 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 36</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Atletico Paranaense</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.53</v>
-      </c>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -873,54 +869,54 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 36</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="O7" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -928,68 +924,68 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 8</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Botafogo RJ</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -997,68 +993,68 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45259</v>
+        <v>45266</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 13</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="O9" t="n">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
@@ -1066,11 +1062,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45260</v>
+        <v>45266</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1080,54 +1076,54 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 36</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="N10" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O10" t="n">
         <v>0.48</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="11">
@@ -1135,11 +1131,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45260</v>
+        <v>45266</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1149,119 +1145,123 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 36</t>
+          <t>SERIE A - ROUND 38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Atletico Paranaense</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45260</v>
+        <v>45266</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 36</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="O12" t="n">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -1269,68 +1269,68 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 6</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="O13" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="14">
@@ -1338,68 +1338,68 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 16</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="O14" t="n">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15">
@@ -1407,202 +1407,202 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.37</v>
-      </c>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 13</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.48</v>
+        <v>0.78</v>
       </c>
       <c r="O17" t="n">
-        <v>0.52</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="18">
@@ -1610,31 +1610,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1679,68 +1679,68 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.55</v>
+        <v>0.85</v>
       </c>
       <c r="O19" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20">
@@ -1748,68 +1748,68 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 7</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="O20" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="21">
@@ -1817,68 +1817,68 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45262</v>
+        <v>45267</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 6</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="O21" t="n">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="22">
@@ -1886,68 +1886,68 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45262</v>
+        <v>45267</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 6</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="O22" t="n">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="23">
@@ -1955,68 +1955,68 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45262</v>
+        <v>45267</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 16</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="O23" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="24">
@@ -2024,68 +2024,68 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45262</v>
+        <v>45267</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 16</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.59</v>
+        <v>0.82</v>
       </c>
       <c r="O24" t="n">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="25">
@@ -2093,68 +2093,68 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45262</v>
+        <v>45267</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 16</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>37.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="O25" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -2162,68 +2162,68 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 37</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.49</v>
+        <v>0.74</v>
       </c>
       <c r="O26" t="n">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="27">
@@ -2231,68 +2231,68 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 37</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.73</v>
+        <v>0.42</v>
       </c>
       <c r="O27" t="n">
-        <v>0.27</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="28">
@@ -2300,68 +2300,68 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 14</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.89</v>
+        <v>0.36</v>
       </c>
       <c r="O28" t="n">
-        <v>0.11</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="29">
@@ -2369,198 +2369,206 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 14</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 14</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="O31" t="n">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="32">
@@ -2568,68 +2576,68 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="O32" t="n">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="33">
@@ -2637,68 +2645,68 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 14</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.79</v>
+        <v>0.34</v>
       </c>
       <c r="O33" t="n">
-        <v>0.21</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="34">
@@ -2706,68 +2714,68 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 14</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.4</v>
+        <v>0.93</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -2775,68 +2783,68 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45262</v>
+        <v>45268</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 13</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Monchengladbach</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="O35" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="36">
@@ -2844,68 +2852,68 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="O36" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="37">
@@ -2913,68 +2921,68 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 13</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.46</v>
+        <v>0.71</v>
       </c>
       <c r="O37" t="n">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="38">
@@ -2982,68 +2990,68 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.89</v>
+        <v>0.48</v>
       </c>
       <c r="O38" t="n">
-        <v>0.11</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="39">
@@ -3051,61 +3059,61 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Sint Truiden</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -3120,68 +3128,68 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 14</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.48</v>
+        <v>0.77</v>
       </c>
       <c r="O40" t="n">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="41">
@@ -3189,68 +3197,68 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="O41" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42">
@@ -3258,68 +3266,68 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="O42" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43">
@@ -3327,51 +3335,51 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3381,14 +3389,14 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.57</v>
+        <v>0.85</v>
       </c>
       <c r="O43" t="n">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="44">
@@ -3396,51 +3404,51 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3450,83 +3458,79 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.37</v>
-      </c>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="O45" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="46">
@@ -3534,68 +3538,68 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
@@ -3603,68 +3607,68 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 12</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="O47" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="48">
@@ -3672,137 +3676,133 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 12</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0.59</v>
-      </c>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 12</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>5.50</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="O49" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="50">
@@ -3810,137 +3810,133 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 12</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Darmstadt</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.37</v>
-      </c>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Monchengladbach</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
       <c r="N51" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="O51" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52">
@@ -3948,68 +3944,68 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="O52" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="53">
@@ -4017,133 +4013,137 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45262</v>
+        <v>45269</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="O54" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="55">
@@ -4151,68 +4151,68 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 6</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.73</v>
+        <v>0.28</v>
       </c>
       <c r="O55" t="n">
-        <v>0.27</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="56">
@@ -4220,68 +4220,68 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 6</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="O56" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
@@ -4289,68 +4289,68 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 16</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
           <t>3.75</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
       <c r="N57" t="n">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="O57" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="58">
@@ -4358,68 +4358,68 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 16</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="O58" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="59">
@@ -4427,68 +4427,68 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 16</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="O59" t="n">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="60">
@@ -4496,68 +4496,68 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 16</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="O60" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="61">
@@ -4565,68 +4565,68 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 37</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0.66</v>
+        <v>0.49</v>
       </c>
       <c r="O61" t="n">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="62">
@@ -4634,68 +4634,68 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 37</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="O62" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="63">
@@ -4703,68 +4703,68 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 37</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="O63" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="64">
@@ -4772,31 +4772,31 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 37</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Athletico Paranaense</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4806,34 +4806,34 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0.43</v>
+        <v>0.59</v>
       </c>
       <c r="O64" t="n">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="65">
@@ -4841,68 +4841,68 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 37</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0.7</v>
+        <v>0.47</v>
       </c>
       <c r="O65" t="n">
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="66">
@@ -4910,68 +4910,68 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 37</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O66" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
@@ -4979,68 +4979,68 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45263</v>
+        <v>45269</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 37</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="O67" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="68">
@@ -5048,68 +5048,68 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 37</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
       <c r="O68" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="69">
@@ -5117,68 +5117,68 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 14</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="O69" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="70">
@@ -5186,68 +5186,68 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 14</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="O70" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="71">
@@ -5255,68 +5255,68 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 14</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
       <c r="O71" t="n">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="72">
@@ -5324,68 +5324,68 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 14</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0.52</v>
+        <v>0.75</v>
       </c>
       <c r="O72" t="n">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="73">
@@ -5393,68 +5393,68 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 14</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>9.80</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0.74</v>
+        <v>0.31</v>
       </c>
       <c r="O73" t="n">
-        <v>0.26</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -5462,72 +5462,76 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -5536,59 +5540,59 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="O75" t="n">
-        <v>0.55</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="76">
@@ -5596,7 +5600,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -5605,128 +5609,124 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>19.50</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.29</v>
-      </c>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="O77" t="n">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="78">
@@ -5734,11 +5734,11 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5748,54 +5748,54 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="O78" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="79">
@@ -5803,11 +5803,11 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5817,54 +5817,54 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
       <c r="N79" t="n">
-        <v>0.68</v>
+        <v>0.37</v>
       </c>
       <c r="O79" t="n">
-        <v>0.32</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="80">
@@ -5872,68 +5872,68 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="O80" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="81">
@@ -5941,68 +5941,68 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N81" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O81" t="n">
         <v>0.48</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="82">
@@ -6010,68 +6010,68 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 13</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0.39</v>
+        <v>0.68</v>
       </c>
       <c r="O82" t="n">
-        <v>0.61</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="83">
@@ -6079,68 +6079,68 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 14</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="O83" t="n">
-        <v>0.58</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="84">
@@ -6148,68 +6148,68 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 14</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="O84" t="n">
-        <v>0.31</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="85">
@@ -6217,68 +6217,68 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 14</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>0.78</v>
+        <v>0.52</v>
       </c>
       <c r="O85" t="n">
-        <v>0.22</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="86">
@@ -6286,11 +6286,11 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -6300,42 +6300,42 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 14</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="O86" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="87">
@@ -6355,11 +6355,11 @@
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6369,54 +6369,54 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 14</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>0.55</v>
+        <v>0.74</v>
       </c>
       <c r="O87" t="n">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="88">
@@ -6424,68 +6424,68 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 14</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="O88" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="89">
@@ -6493,68 +6493,68 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 14</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
       <c r="O89" t="n">
-        <v>0.55</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="90">
@@ -6562,11 +6562,11 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6576,54 +6576,54 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="O90" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="91">
@@ -6631,11 +6631,11 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6645,37 +6645,37 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6685,14 +6685,14 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="O91" t="n">
-        <v>0.54</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="92">
@@ -6700,68 +6700,68 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 12</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
       <c r="O92" t="n">
-        <v>0.08</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="93">
@@ -6769,11 +6769,11 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -6783,54 +6783,54 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="O93" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94">
@@ -6838,11 +6838,11 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6852,34 +6852,34 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 12</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>1.30</t>
@@ -6887,19 +6887,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="O94" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="95">
@@ -6907,76 +6907,80 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6986,54 +6990,54 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 15</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>Almeria</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Real Betis</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>0.37</v>
+        <v>0.88</v>
       </c>
       <c r="O96" t="n">
-        <v>0.63</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="97">
@@ -7041,11 +7045,11 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -7055,37 +7059,37 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 15</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -7095,26 +7099,22 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.53</v>
-      </c>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>45263</v>
+        <v>45270</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -7124,54 +7124,54 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 15</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="O98" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="99">
@@ -7179,68 +7179,68 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>45264</v>
+        <v>45270</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 6</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>0.42</v>
+        <v>0.8</v>
       </c>
       <c r="O99" t="n">
-        <v>0.58</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="100">
@@ -7248,11 +7248,11 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>45264</v>
+        <v>45271</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -7262,54 +7262,54 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 14</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="O100" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="101">
@@ -7317,68 +7317,68 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>45264</v>
+        <v>45271</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 12</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>0.9</v>
+        <v>0.48</v>
       </c>
       <c r="O101" t="n">
-        <v>0.1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="102">
@@ -7386,68 +7386,137 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>45264</v>
+        <v>45271</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>LIGA PORTUGAL - ROUND 13</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Gil Vicente FC</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>SPAIN</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>LALIGA - ROUND 16</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>Celta Vigo</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.42</v>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>

--- a/df_odds_final.xlsx
+++ b/df_odds_final.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,68 +514,68 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -583,68 +583,68 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>PREMIER LEAGUE - ROUND 15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.32</v>
+        <v>0.73</v>
       </c>
       <c r="O3" t="n">
-        <v>0.68</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -652,68 +652,68 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>LIGUE 1 - ROUND 12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.41</v>
+        <v>0.66</v>
       </c>
       <c r="O4" t="n">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -721,68 +721,68 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.33</v>
+        <v>0.82</v>
       </c>
       <c r="O5" t="n">
-        <v>0.67</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -790,133 +790,137 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Atletico Paranaense</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="O7" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
@@ -924,68 +928,68 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Botafogo RJ</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>1.30</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
       <c r="N8" t="n">
-        <v>0.7</v>
+        <v>0.42</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
@@ -993,51 +997,51 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1047,14 +1051,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="O9" t="n">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
@@ -1062,56 +1066,56 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1120,10 +1124,10 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.52</v>
+        <v>0.28</v>
       </c>
       <c r="O10" t="n">
-        <v>0.48</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="11">
@@ -1131,68 +1135,68 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BRAZIL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 38</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="O11" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12">
@@ -1200,68 +1204,68 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="13">
@@ -1269,68 +1273,68 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="O13" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14">
@@ -1338,68 +1342,68 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.76</v>
+        <v>0.34</v>
       </c>
       <c r="O14" t="n">
-        <v>0.24</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="15">
@@ -1407,133 +1411,137 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="O16" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="17">
@@ -1541,68 +1549,68 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45266</v>
+        <v>45269</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Wellington Phoenix</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="O17" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18">
@@ -1610,31 +1618,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45266</v>
+        <v>45269</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 10</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1644,34 +1652,34 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="O18" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="19">
@@ -1679,68 +1687,68 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45266</v>
+        <v>45269</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 10</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.85</v>
+        <v>0.48</v>
       </c>
       <c r="O19" t="n">
-        <v>0.15</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="20">
@@ -1748,68 +1756,68 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45266</v>
+        <v>45269</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 7</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Sint Truiden</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="O20" t="n">
-        <v>0.61</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="21">
@@ -1817,68 +1825,68 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45267</v>
+        <v>45269</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="O21" t="n">
-        <v>0.62</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="22">
@@ -1886,11 +1894,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45267</v>
+        <v>45269</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1900,54 +1908,54 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="O22" t="n">
-        <v>0.27</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23">
@@ -1955,68 +1963,68 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45267</v>
+        <v>45269</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.66</v>
+        <v>0.85</v>
       </c>
       <c r="O23" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24">
@@ -2024,68 +2032,68 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45267</v>
+        <v>45269</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>7.30</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="O24" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="25">
@@ -2093,68 +2101,68 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45267</v>
+        <v>45269</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>37.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.93</v>
+        <v>0.65</v>
       </c>
       <c r="O25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="26">
@@ -2162,68 +2170,68 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="O26" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
@@ -2231,68 +2239,68 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="O27" t="n">
-        <v>0.58</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="28">
@@ -2300,68 +2308,68 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="O28" t="n">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="29">
@@ -2369,68 +2377,68 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Monchengladbach</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.28</v>
+        <v>0.7</v>
       </c>
       <c r="O29" t="n">
-        <v>0.72</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30">
@@ -2438,11 +2446,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2457,49 +2465,49 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="O30" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="31">
@@ -2507,46 +2515,46 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2556,19 +2564,19 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="O31" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -2576,68 +2584,68 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.85</v>
+        <v>0.58</v>
       </c>
       <c r="O32" t="n">
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="33">
@@ -2645,68 +2653,68 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="O33" t="n">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="34">
@@ -2714,68 +2722,68 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="O34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
@@ -2783,68 +2791,68 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="O35" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="36">
@@ -2856,64 +2864,64 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="O36" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="37">
@@ -2925,64 +2933,64 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="O37" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="38">
@@ -2994,64 +3002,64 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.48</v>
+        <v>0.88</v>
       </c>
       <c r="O38" t="n">
-        <v>0.52</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="39">
@@ -3063,64 +3071,64 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="O39" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="40">
@@ -3132,64 +3140,64 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.77</v>
+        <v>0.45</v>
       </c>
       <c r="O40" t="n">
-        <v>0.23</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="41">
@@ -3201,64 +3209,64 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.4</v>
+        <v>0.91</v>
       </c>
       <c r="O41" t="n">
-        <v>0.6</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="42">
@@ -3270,64 +3278,64 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="O42" t="n">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="43">
@@ -3339,47 +3347,47 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3389,14 +3397,14 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.85</v>
+        <v>0.47</v>
       </c>
       <c r="O43" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="44">
@@ -3408,61 +3416,65 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>1.70</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3473,64 +3485,64 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="O45" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="46">
@@ -3538,68 +3550,68 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="47">
@@ -3607,68 +3619,68 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>A-LEAGUE - ROUND 7</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="O47" t="n">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="48">
@@ -3676,116 +3688,120 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3795,14 +3811,14 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="O49" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="50">
@@ -3810,133 +3826,137 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Darmstadt</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>JUPILER PRO LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Monchengladbach</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.7</v>
+        <v>0.31</v>
       </c>
       <c r="O51" t="n">
-        <v>0.3</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3944,68 +3964,68 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="O52" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="53">
@@ -4013,68 +4033,68 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="O53" t="n">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="54">
@@ -4082,68 +4102,68 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>PREMIER LEAGUE - ROUND 16</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="O54" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="55">
@@ -4151,68 +4171,68 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.28</v>
+        <v>0.65</v>
       </c>
       <c r="O55" t="n">
-        <v>0.72</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="56">
@@ -4220,68 +4240,68 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="O56" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="57">
@@ -4289,68 +4309,68 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
       <c r="O57" t="n">
-        <v>0.23</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="58">
@@ -4358,68 +4378,68 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="O58" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="59">
@@ -4427,36 +4447,36 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4466,29 +4486,29 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
       <c r="O59" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="60">
@@ -4496,68 +4516,68 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 15</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.88</v>
+        <v>0.53</v>
       </c>
       <c r="O60" t="n">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="61">
@@ -4565,56 +4585,56 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4623,10 +4643,10 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="O61" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="62">
@@ -4634,68 +4654,68 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>BUNDESLIGA - ROUND 14</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="O62" t="n">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="63">
@@ -4703,68 +4723,68 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0.91</v>
+        <v>0.47</v>
       </c>
       <c r="O63" t="n">
-        <v>0.09</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="64">
@@ -4772,51 +4792,51 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4826,14 +4846,14 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="O64" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="65">
@@ -4841,61 +4861,61 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -4910,68 +4930,68 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="O66" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="67">
@@ -4979,68 +4999,68 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45269</v>
+        <v>45270</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="O67" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="68">
@@ -5052,64 +5072,64 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0.72</v>
+        <v>0.58</v>
       </c>
       <c r="O68" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="69">
@@ -5121,47 +5141,47 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>EREDIVISIE - ROUND 15</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5171,14 +5191,14 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="O69" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70">
@@ -5190,64 +5210,64 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O70" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71">
@@ -5259,64 +5279,64 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>0.32</v>
+        <v>0.65</v>
       </c>
       <c r="O71" t="n">
-        <v>0.68</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="72">
@@ -5328,64 +5348,64 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O72" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73">
@@ -5397,64 +5417,64 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0.31</v>
+        <v>0.88</v>
       </c>
       <c r="O73" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="74">
@@ -5466,64 +5486,64 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="O74" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="75">
@@ -5535,64 +5555,64 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="O75" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76">
@@ -5600,133 +5620,137 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>19.50</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>SERIE A - ROUND 15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="O77" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="78">
@@ -5734,68 +5758,68 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 13</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="O78" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="79">
@@ -5803,1719 +5827,67 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45270</v>
+        <v>45271</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>LALIGA - ROUND 16</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="O79" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>LIGUE 1 - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Metz</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Brest</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>LIGUE 1 - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Strasbourg</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Le Havre</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>13:05</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>LIGUE 1 - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Lyon</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Toulouse</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>FRANCE</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>LIGUE 1 - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Lorient</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Marseille</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>BUNDESLIGA - ROUND 14</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Stuttgart</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GERMANY</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>BUNDESLIGA - ROUND 14</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Koln</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Mainz 05</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Frosinone</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Torino</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Monza</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Genoa</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Fiorentina</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>08:15</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>EREDIVISIE - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Go Ahead Eagles</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Utrecht</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>EREDIVISIE - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Fortuna Sittard</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>RKC Waalwijk</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>12:45</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>NETHERLANDS</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>EREDIVISIE - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Vitesse</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Heracles Almelo</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Estrela</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Boavista</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Arouca</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Rio Ave</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Estoril</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Chaves</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 16</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Atletico Madrid</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Almeria</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 16</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Granada CF</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Athletic Club</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 16</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Osasuna</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 16</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Girona</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Empoli</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Lecce</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Gil Vicente FC</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Moreirense</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 16</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Rayo Vallecano</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Celta Vigo</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O103" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/df_odds_final.xlsx
+++ b/df_odds_final.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,68 +514,68 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45267</v>
+        <v>45275</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>A-LEAGUE - ROUND 8</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="O2" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -583,68 +583,68 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45267</v>
+        <v>45275</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 15</t>
+          <t>A-LEAGUE - ROUND 8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Western Sydney Wanderers</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.73</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -652,46 +652,46 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45267</v>
+        <v>45275</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 12</t>
+          <t>JUPILER PRO LEAGUE - ROUND 18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="O4" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -721,68 +721,68 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45267</v>
+        <v>45275</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>PREMIER LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.82</v>
+        <v>0.41</v>
       </c>
       <c r="O5" t="n">
-        <v>0.18</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45267</v>
+        <v>45275</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -799,59 +799,59 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGUE 1 - ROUND 16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Volendam</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>43.00</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7">
@@ -859,51 +859,51 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>BUNDESLIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Monchengladbach</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Western United</t>
+          <t>Werder Bremen</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -913,14 +913,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="O7" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -928,68 +928,68 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>SERIE A - ROUND 16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
       <c r="N8" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="O8" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9">
@@ -997,68 +997,68 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>EREDIVISIE - ROUND 16</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.36</v>
+        <v>0.68</v>
       </c>
       <c r="O9" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="10">
@@ -1066,68 +1066,68 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>0.72</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">
@@ -1135,68 +1135,68 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>LALIGA - ROUND 17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bochum</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="O11" t="n">
-        <v>0.49</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12">
@@ -1204,46 +1204,46 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45268</v>
+        <v>45276</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>A-LEAGUE - ROUND 8</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Perth Glory</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1253,19 +1253,19 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.41</v>
+        <v>0.55</v>
       </c>
       <c r="O12" t="n">
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13">
@@ -1273,68 +1273,68 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45268</v>
+        <v>45276</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>05:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>A-LEAGUE - ROUND 8</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Melbourne Victory</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Sydney FC</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.85</v>
+        <v>0.47</v>
       </c>
       <c r="O13" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="14">
@@ -1342,68 +1342,68 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45268</v>
+        <v>45276</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
       <c r="O14" t="n">
-        <v>0.66</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="15">
@@ -1411,68 +1411,68 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45268</v>
+        <v>45276</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 18</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Sint Truiden</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.93</v>
+        <v>0.49</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="16">
@@ -1480,68 +1480,68 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45268</v>
+        <v>45276</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>JUPILER PRO LEAGUE - ROUND 18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="O16" t="n">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="17">
@@ -1549,68 +1549,68 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>PREMIER LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Wellington Phoenix</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>17.50</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="O17" t="n">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18">
@@ -1618,68 +1618,68 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>PREMIER LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sydney FC</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="O18" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="19">
@@ -1687,68 +1687,68 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>PREMIER LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="O19" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
@@ -1756,68 +1756,68 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGUE 1 - ROUND 16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
       <c r="N20" t="n">
-        <v>0.58</v>
+        <v>0.33</v>
       </c>
       <c r="O20" t="n">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="21">
@@ -1825,68 +1825,68 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGUE 1 - ROUND 16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Reims</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="O21" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="22">
@@ -1894,68 +1894,68 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>BUNDESLIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="23">
@@ -1963,68 +1963,68 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>BUNDESLIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Bochum</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>1.52</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
       <c r="N23" t="n">
-        <v>0.85</v>
+        <v>0.48</v>
       </c>
       <c r="O23" t="n">
-        <v>0.15</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="24">
@@ -2032,68 +2032,68 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>BUNDESLIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O24" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="25">
@@ -2101,68 +2101,68 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>BUNDESLIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="O25" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="26">
@@ -2170,68 +2170,68 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>SERIE A - ROUND 16</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>3.45</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="27">
@@ -2239,68 +2239,68 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>SERIE A - ROUND 16</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.63</v>
+        <v>0.93</v>
       </c>
       <c r="O27" t="n">
-        <v>0.37</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -2308,68 +2308,68 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>SERIE A - ROUND 16</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.28</v>
+        <v>0.64</v>
       </c>
       <c r="O28" t="n">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="29">
@@ -2377,68 +2377,68 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 16</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Monchengladbach</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="O29" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="30">
@@ -2446,68 +2446,68 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 16</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Werder Bremen</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.54</v>
+        <v>0.22</v>
       </c>
       <c r="O30" t="n">
-        <v>0.46</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="31">
@@ -2515,68 +2515,68 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 16</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Volendam</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
       <c r="N31" t="n">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="O31" t="n">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="32">
@@ -2584,68 +2584,68 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>LIGA PORTUGAL - ROUND 14</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="O32" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="33">
@@ -2653,51 +2653,51 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 14</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2707,14 +2707,14 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N33" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.28</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.72</v>
       </c>
     </row>
     <row r="34">
@@ -2722,51 +2722,51 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 14</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2776,14 +2776,14 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="35">
@@ -2791,68 +2791,68 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>LALIGA - ROUND 17</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.77</v>
+        <v>0.44</v>
       </c>
       <c r="O35" t="n">
-        <v>0.23</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="36">
@@ -2860,68 +2860,68 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LALIGA - ROUND 17</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="O36" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="37">
@@ -2929,68 +2929,68 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45269</v>
+        <v>45276</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LALIGA - ROUND 17</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="O37" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="38">
@@ -2998,68 +2998,68 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45269</v>
+        <v>45277</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>AUSTRALIA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>A-LEAGUE - ROUND 8</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="O38" t="n">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="39">
@@ -3067,68 +3067,68 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45269</v>
+        <v>45277</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 18</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="O39" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40">
@@ -3136,68 +3136,68 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45269</v>
+        <v>45277</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 18</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.45</v>
+        <v>0.85</v>
       </c>
       <c r="O40" t="n">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="41">
@@ -3205,68 +3205,68 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>45269</v>
+        <v>45277</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>JUPILER PRO LEAGUE - ROUND 18</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
           <t>1.25</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="O41" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42">
@@ -3274,68 +3274,68 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45269</v>
+        <v>45277</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>BELGIUM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>JUPILER PRO LEAGUE - ROUND 18</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.59</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42" t="n">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="43">
@@ -3343,68 +3343,68 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45269</v>
+        <v>45277</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>PREMIER LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.47</v>
+        <v>0.72</v>
       </c>
       <c r="O43" t="n">
-        <v>0.53</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="44">
@@ -3412,68 +3412,68 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45269</v>
+        <v>45277</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>PREMIER LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="O44" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="45">
@@ -3481,68 +3481,68 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45269</v>
+        <v>45277</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SPAIN</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>LALIGA - ROUND 16</t>
+          <t>PREMIER LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="O45" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="46">
@@ -3550,68 +3550,68 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>ENGLAND</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>PREMIER LEAGUE - ROUND 17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Adelaide United</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="O46" t="n">
-        <v>0.28</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="47">
@@ -3619,68 +3619,68 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AUSTRALIA</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A-LEAGUE - ROUND 7</t>
+          <t>LIGUE 1 - ROUND 16</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Melbourne Victory</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
       <c r="O47" t="n">
-        <v>0.24</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="48">
@@ -3688,68 +3688,68 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGUE 1 - ROUND 16</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.4</v>
+        <v>0.66</v>
       </c>
       <c r="O48" t="n">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="49">
@@ -3757,68 +3757,68 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGUE 1 - ROUND 16</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="O49" t="n">
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="50">
@@ -3826,68 +3826,68 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGUE 1 - ROUND 16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O50" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
@@ -3895,68 +3895,68 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>BELGIUM</t>
+          <t>FRANCE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>JUPILER PRO LEAGUE - ROUND 17</t>
+          <t>LIGUE 1 - ROUND 16</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Clermont Foot</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.31</v>
+        <v>0.76</v>
       </c>
       <c r="O51" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="52">
@@ -3964,68 +3964,68 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>BUNDESLIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.47</v>
+        <v>0.74</v>
       </c>
       <c r="O52" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="53">
@@ -4033,68 +4033,68 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>BUNDESLIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Bayer Leverkusen</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="O53" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="54">
@@ -4102,68 +4102,68 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ENGLAND</t>
+          <t>GERMANY</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PREMIER LEAGUE - ROUND 16</t>
+          <t>BUNDESLIGA - ROUND 15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Stuttgart</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.49</v>
+        <v>0.9</v>
       </c>
       <c r="O54" t="n">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55">
@@ -4171,68 +4171,68 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>SERIE A - ROUND 16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Reims</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O55" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="56">
@@ -4240,7 +4240,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -4249,59 +4249,59 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>SERIE A - ROUND 16</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Clermont Foot</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0.37</v>
+        <v>0.85</v>
       </c>
       <c r="O56" t="n">
-        <v>0.63</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="57">
@@ -4309,7 +4309,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -4318,59 +4318,59 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>SERIE A - ROUND 16</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
       <c r="N57" t="n">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O57" t="n">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="58">
@@ -4378,68 +4378,68 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>SERIE A - ROUND 16</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="O58" t="n">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="59">
@@ -4447,36 +4447,36 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>ITALY</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>SERIE A - ROUND 16</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4486,12 +4486,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4501,14 +4501,14 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="O59" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="60">
@@ -4516,68 +4516,68 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FRANCE</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>LIGUE 1 - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 16</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="O60" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="61">
@@ -4585,68 +4585,68 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 16</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>12.50</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="O61" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="62">
@@ -4654,68 +4654,68 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>GERMANY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>BUNDESLIGA - ROUND 14</t>
+          <t>EREDIVISIE - ROUND 16</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
           <t>1.26</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
       <c r="N62" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="O62" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
@@ -4723,68 +4723,68 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 16</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0.47</v>
+        <v>0.87</v>
       </c>
       <c r="O63" t="n">
-        <v>0.53</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="64">
@@ -4792,68 +4792,68 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>NETHERLANDS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>EREDIVISIE - ROUND 16</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
           <t>1.30</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
       <c r="N64" t="n">
-        <v>0.74</v>
+        <v>0.42</v>
       </c>
       <c r="O64" t="n">
-        <v>0.26</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="65">
@@ -4861,68 +4861,68 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 14</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0.47</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O65" t="n">
-        <v>0.53</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="66">
@@ -4930,61 +4930,61 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ITALY</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERIE A - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 14</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -4999,56 +4999,56 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 14</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Utrecht</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -5057,10 +5057,10 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="O67" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="68">
@@ -5068,51 +5068,51 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LIGA PORTUGAL - ROUND 14</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5122,14 +5122,14 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0.58</v>
+        <v>0.49</v>
       </c>
       <c r="O68" t="n">
-        <v>0.42</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="69">
@@ -5137,68 +5137,68 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NETHERLANDS</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>EREDIVISIE - ROUND 15</t>
+          <t>LALIGA - ROUND 17</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
       <c r="O69" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="70">
@@ -5206,68 +5206,68 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>LALIGA - ROUND 17</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="O70" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="71">
@@ -5275,51 +5275,51 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>LALIGA - ROUND 17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5329,14 +5329,14 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
       <c r="O71" t="n">
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="72">
@@ -5344,551 +5344,68 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>45270</v>
+        <v>45277</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>SPAIN</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
+          <t>LALIGA - ROUND 17</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
       <c r="N72" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="O72" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 16</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Atletico Madrid</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Almeria</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 16</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Osasuna</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>45270</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 16</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Girona</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Empoli</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Lecce</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>ITALY</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>SERIE A - ROUND 15</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Cagliari</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>17:15</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>PORTUGAL</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>LIGA PORTUGAL - ROUND 13</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Gil Vicente FC</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Moreirense</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>SPAIN</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>LALIGA - ROUND 16</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Rayo Vallecano</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Celta Vigo</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
